--- a/Raw/ATPaptACmm + adsN ratio 1-10.xlsx
+++ b/Raw/ATPaptACmm + adsN ratio 1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4912E-F600-43B7-A480-757F5999B5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420790D0-806D-4A11-961F-583D8E0650F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4057A2A4-D492-4F4D-8583-C6730BC5B3C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4057A2A4-D492-4F4D-8583-C6730BC5B3C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ratio 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>T</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>ads14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -444,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9C3DD8-C766-4751-8E3E-D1D1C32F6268}">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +483,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE($I1,B1)</f>
+        <v>Info ads8</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
+        <v>Info ads9</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads10</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads11</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads12</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads13</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -503,8 +540,29 @@
       <c r="H2">
         <v>541696.3125</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>7.7</v>
+      </c>
+      <c r="L2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M2">
+        <v>8.9</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>10.1</v>
+      </c>
+      <c r="P2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -529,8 +587,26 @@
       <c r="H3">
         <v>536018.0625</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>12.5</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>13.7</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -555,8 +631,29 @@
       <c r="H4">
         <v>531148.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -581,8 +678,29 @@
       <c r="H5">
         <v>527214.3125</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>-2.60685988973593E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.7042566122622999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8935318901882098E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.7367230990193701E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7129753705736399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.0823274394742001E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.9304916450849001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -607,8 +725,29 @@
       <c r="H6">
         <v>523308.0625</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="K6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="L6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="M6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="N6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="O6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="P6">
+        <v>12.9554015315904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -633,8 +772,29 @@
       <c r="H7">
         <v>520343</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>12.6796109656678</v>
+      </c>
+      <c r="K7">
+        <v>12.8292427748611</v>
+      </c>
+      <c r="L7">
+        <v>12.914109447618999</v>
+      </c>
+      <c r="M7">
+        <v>12.815118052590901</v>
+      </c>
+      <c r="N7">
+        <v>13.094613791895201</v>
+      </c>
+      <c r="O7">
+        <v>13.188539220536301</v>
+      </c>
+      <c r="P7">
+        <v>13.196144394817001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -660,7 +820,7 @@
         <v>517251.3125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -686,7 +846,7 @@
         <v>515098.8125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -712,7 +872,7 @@
         <v>512180.71875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -738,7 +898,7 @@
         <v>510725</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -764,7 +924,7 @@
         <v>508616.5625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -790,7 +950,7 @@
         <v>507413.5625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -816,7 +976,7 @@
         <v>505640.71875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -842,7 +1002,7 @@
         <v>504138.84375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -8313,13 +8473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540438DA-4403-4AB0-A6FD-ED3468848663}">
   <dimension ref="A1:R302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="H302" sqref="H237:H302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8344,8 +8504,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE($I1,B1)</f>
+        <v>Info ads8</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
+        <v>Info ads9</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads10</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads11</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads12</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads13</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -8370,11 +8561,29 @@
       <c r="H2">
         <v>404160.21875</v>
       </c>
-      <c r="R2">
-        <v>404160.21875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>7.7</v>
+      </c>
+      <c r="L2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M2">
+        <v>8.9</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>10.1</v>
+      </c>
+      <c r="P2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -8399,11 +8608,26 @@
       <c r="H3">
         <v>400053.125</v>
       </c>
-      <c r="R3">
-        <v>400053.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>12.5</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>13.7</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -8428,11 +8652,29 @@
       <c r="H4">
         <v>395154.40625</v>
       </c>
-      <c r="R4">
-        <v>395154.40625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -8457,11 +8699,29 @@
       <c r="H5">
         <v>390858.21875</v>
       </c>
-      <c r="R5">
-        <v>390858.21875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>-2.60685988973593E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.7042566122622999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8935318901882098E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.7367230990193701E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7129753705736399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.0823274394742001E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.9304916450849001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -8486,11 +8746,29 @@
       <c r="H6">
         <v>388370.90625</v>
       </c>
-      <c r="R6">
-        <v>388370.90625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="K6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="L6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="M6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="N6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="O6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="P6">
+        <v>12.9554015315904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -8515,11 +8793,29 @@
       <c r="H7">
         <v>385267.0625</v>
       </c>
-      <c r="R7">
-        <v>385267.0625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>12.6796109656678</v>
+      </c>
+      <c r="K7">
+        <v>12.8292427748611</v>
+      </c>
+      <c r="L7">
+        <v>12.914109447618999</v>
+      </c>
+      <c r="M7">
+        <v>12.815118052590901</v>
+      </c>
+      <c r="N7">
+        <v>13.094613791895201</v>
+      </c>
+      <c r="O7">
+        <v>13.188539220536301</v>
+      </c>
+      <c r="P7">
+        <v>13.196144394817001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -8544,11 +8840,8 @@
       <c r="H8">
         <v>382983.5</v>
       </c>
-      <c r="R8">
-        <v>382983.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -8573,11 +8866,8 @@
       <c r="H9">
         <v>380174.40625</v>
       </c>
-      <c r="R9">
-        <v>380174.40625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -8602,11 +8892,8 @@
       <c r="H10">
         <v>378509.03125</v>
       </c>
-      <c r="R10">
-        <v>378509.03125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -8631,11 +8918,8 @@
       <c r="H11">
         <v>376398.84375</v>
       </c>
-      <c r="R11">
-        <v>376398.84375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -8660,11 +8944,8 @@
       <c r="H12">
         <v>374910.75</v>
       </c>
-      <c r="R12">
-        <v>374910.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -8689,11 +8970,8 @@
       <c r="H13">
         <v>372787.65625</v>
       </c>
-      <c r="R13">
-        <v>372787.65625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -8718,11 +8996,8 @@
       <c r="H14">
         <v>371496</v>
       </c>
-      <c r="R14">
-        <v>371496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -8747,11 +9022,8 @@
       <c r="H15">
         <v>370342</v>
       </c>
-      <c r="R15">
-        <v>370342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -8774,9 +9046,6 @@
         <v>209924.84375</v>
       </c>
       <c r="H16">
-        <v>368804.96875</v>
-      </c>
-      <c r="R16">
         <v>368804.96875</v>
       </c>
     </row>
@@ -8805,9 +9074,6 @@
       <c r="H17">
         <v>367381.875</v>
       </c>
-      <c r="R17">
-        <v>367381.875</v>
-      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -8834,9 +9100,6 @@
       <c r="H18">
         <v>367551.03125</v>
       </c>
-      <c r="R18">
-        <v>367551.03125</v>
-      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -8863,9 +9126,6 @@
       <c r="H19">
         <v>365638.34375</v>
       </c>
-      <c r="R19">
-        <v>365638.34375</v>
-      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -8892,9 +9152,6 @@
       <c r="H20">
         <v>365279.65625</v>
       </c>
-      <c r="R20">
-        <v>365279.65625</v>
-      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -8921,9 +9178,6 @@
       <c r="H21">
         <v>364315.21875</v>
       </c>
-      <c r="R21">
-        <v>364315.21875</v>
-      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -15183,7 +15437,7 @@
         <v>29207.4765625</v>
       </c>
       <c r="H237">
-        <f t="shared" ref="H237:H300" si="0">R237-(R237-(0.037562044057713*$A237-0.837451754523679)*EXP(12.70776)*EXP($A237*-0.037194))</f>
+        <f t="shared" ref="H237:H300" si="1">R237-(R237-(0.037562044057713*$A237-0.837451754523679)*EXP(12.70776)*EXP($A237*-0.037194))</f>
         <v>39815.086550579312</v>
       </c>
       <c r="R237">
@@ -15213,7 +15467,7 @@
         <v>29156.4921875</v>
       </c>
       <c r="H238">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39595.300892741529</v>
       </c>
       <c r="R238">
@@ -15243,7 +15497,7 @@
         <v>29056.7890625</v>
       </c>
       <c r="H239">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39375.49055723504</v>
       </c>
       <c r="R239">
@@ -15273,7 +15527,7 @@
         <v>28745.328125</v>
       </c>
       <c r="H240">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39155.683152862075</v>
       </c>
       <c r="R240">
@@ -15303,7 +15557,7 @@
         <v>28313.203125</v>
       </c>
       <c r="H241">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38935.905678758812</v>
       </c>
       <c r="R241">
@@ -15333,7 +15587,7 @@
         <v>28223.4453125</v>
       </c>
       <c r="H242">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38716.18453452619</v>
       </c>
       <c r="R242">
@@ -15363,7 +15617,7 @@
         <v>27873.546875</v>
       </c>
       <c r="H243">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38496.545530210526</v>
       </c>
       <c r="R243">
@@ -15393,7 +15647,7 @@
         <v>27550.21875</v>
       </c>
       <c r="H244">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38277.01389613685</v>
       </c>
       <c r="R244">
@@ -15423,7 +15677,7 @@
         <v>28009.763671875</v>
       </c>
       <c r="H245">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38057.614292596285</v>
       </c>
       <c r="R245">
@@ -15453,7 +15707,7 @@
         <v>27063.3984375</v>
       </c>
       <c r="H246">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37838.370819390002</v>
       </c>
       <c r="R246">
@@ -15483,7 +15737,7 @@
         <v>27097.267578125</v>
       </c>
       <c r="H247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37619.307025231574</v>
       </c>
       <c r="R247">
@@ -15513,7 +15767,7 @@
         <v>26742.7265625</v>
       </c>
       <c r="H248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37400.4459170095</v>
       </c>
       <c r="R248">
@@ -15543,7 +15797,7 @@
         <v>26535.259765625</v>
       </c>
       <c r="H249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37181.80996891221</v>
       </c>
       <c r="R249">
@@ -15573,7 +15827,7 @@
         <v>26467.998046875</v>
       </c>
       <c r="H250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36963.421131417184</v>
       </c>
       <c r="R250">
@@ -15603,7 +15857,7 @@
         <v>26193.919921875</v>
       </c>
       <c r="H251">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36745.300840146236</v>
       </c>
       <c r="R251">
@@ -15633,7 +15887,7 @@
         <v>25663.91796875</v>
       </c>
       <c r="H252">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36527.470024588656</v>
       </c>
       <c r="R252">
@@ -15663,7 +15917,7 @@
         <v>25046.90234375</v>
       </c>
       <c r="H253">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36309.949116694283</v>
       </c>
       <c r="R253">
@@ -15693,7 +15947,7 @@
         <v>25201.87109375</v>
       </c>
       <c r="H254">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36092.758059338048</v>
       </c>
       <c r="R254">
@@ -15723,7 +15977,7 @@
         <v>25196.04296875</v>
       </c>
       <c r="H255">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35875.916314658134</v>
       </c>
       <c r="R255">
@@ -15753,7 +16007,7 @@
         <v>24783.232421875</v>
       </c>
       <c r="H256">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35659.442872269014</v>
       </c>
       <c r="R256">
@@ -15783,7 +16037,7 @@
         <v>24496.80078125</v>
       </c>
       <c r="H257">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35443.356257351785</v>
       </c>
       <c r="R257">
@@ -15813,7 +16067,7 @@
         <v>24517.9140625</v>
       </c>
       <c r="H258">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35227.67453862277</v>
       </c>
       <c r="R258">
@@ -15843,7 +16097,7 @@
         <v>24631.744140625</v>
       </c>
       <c r="H259">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35012.415336182778</v>
       </c>
       <c r="R259">
@@ -15873,7 +16127,7 @@
         <v>23811.625</v>
       </c>
       <c r="H260">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34797.595829248035</v>
       </c>
       <c r="R260">
@@ -15903,7 +16157,7 @@
         <v>23600.216796875</v>
       </c>
       <c r="H261">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34583.232763765183</v>
       </c>
       <c r="R261">
@@ -15933,7 +16187,7 @@
         <v>23463.72265625</v>
       </c>
       <c r="H262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34369.342459911255</v>
       </c>
       <c r="R262">
@@ -15963,7 +16217,7 @@
         <v>23276.31640625</v>
       </c>
       <c r="H263">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34155.940819480624</v>
       </c>
       <c r="R263">
@@ -15993,7 +16247,7 @@
         <v>23610.443359375</v>
       </c>
       <c r="H264">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33943.043333160567</v>
       </c>
       <c r="R264">
@@ -16023,7 +16277,7 @@
         <v>22928.6171875</v>
       </c>
       <c r="H265">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33730.665087696689</v>
       </c>
       <c r="R265">
@@ -16053,7 +16307,7 @@
         <v>22833.240234375</v>
       </c>
       <c r="H266">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33518.820772950166</v>
       </c>
       <c r="R266">
@@ -16083,7 +16337,7 @@
         <v>22534.06640625</v>
       </c>
       <c r="H267">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33307.524688847843</v>
       </c>
       <c r="R267">
@@ -16113,7 +16367,7 @@
         <v>22510.71875</v>
       </c>
       <c r="H268">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33096.790752227258</v>
       </c>
       <c r="R268">
@@ -16143,7 +16397,7 @@
         <v>22079.97265625</v>
       </c>
       <c r="H269">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32886.632503577479</v>
       </c>
       <c r="R269">
@@ -16173,7 +16427,7 @@
         <v>22107.32421875</v>
       </c>
       <c r="H270">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32677.06311367777</v>
       </c>
       <c r="R270">
@@ -16203,7 +16457,7 @@
         <v>21795.3359375</v>
       </c>
       <c r="H271">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32468.095390134989</v>
       </c>
       <c r="R271">
@@ -16233,7 +16487,7 @@
         <v>21179.60546875</v>
       </c>
       <c r="H272">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32259.741783821824</v>
       </c>
       <c r="R272">
@@ -16263,7 +16517,7 @@
         <v>21121.203125</v>
       </c>
       <c r="H273">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32052.014395216374</v>
       </c>
       <c r="R273">
@@ -16293,7 +16547,7 @@
         <v>20835.26171875</v>
       </c>
       <c r="H274">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31844.924980645381</v>
       </c>
       <c r="R274">
@@ -16323,7 +16577,7 @@
         <v>21006.2109375</v>
       </c>
       <c r="H275">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31638.484958431789</v>
       </c>
       <c r="R275">
@@ -16353,7 +16607,7 @@
         <v>20346.64453125</v>
       </c>
       <c r="H276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31432.705414948439</v>
       </c>
       <c r="R276">
@@ -16383,7 +16637,7 @@
         <v>20204.59375</v>
       </c>
       <c r="H277">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31227.597110578874</v>
       </c>
       <c r="R277">
@@ -16413,7 +16667,7 @@
         <v>20108.29296875</v>
       </c>
       <c r="H278">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31023.17048558679</v>
       </c>
       <c r="R278">
@@ -16443,7 +16697,7 @@
         <v>19955.87109375</v>
       </c>
       <c r="H279">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30819.435665895442</v>
       </c>
       <c r="R279">
@@ -16473,7 +16727,7 @@
         <v>19279.853515625</v>
       </c>
       <c r="H280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30616.402468778047</v>
       </c>
       <c r="R280">
@@ -16503,7 +16757,7 @@
         <v>19638.1484375</v>
       </c>
       <c r="H281">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30414.080408460803</v>
       </c>
       <c r="R281">
@@ -16533,7 +16787,7 @@
         <v>19317.27734375</v>
       </c>
       <c r="H282">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30212.478701639375</v>
       </c>
       <c r="R282">
@@ -16563,7 +16817,7 @@
         <v>19332.953125</v>
       </c>
       <c r="H283">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30011.606272910409</v>
       </c>
       <c r="R283">
@@ -16593,7 +16847,7 @@
         <v>18765.353515625</v>
       </c>
       <c r="H284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29811.471760119075</v>
       </c>
       <c r="R284">
@@ -16623,7 +16877,7 @@
         <v>18964.328125</v>
       </c>
       <c r="H285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29612.083519623902</v>
       </c>
       <c r="R285">
@@ -16653,7 +16907,7 @@
         <v>18305.908203125</v>
       </c>
       <c r="H286">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29413.449631480104</v>
       </c>
       <c r="R286">
@@ -16683,7 +16937,7 @@
         <v>18290.9140625</v>
       </c>
       <c r="H287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29215.577904542577</v>
       </c>
       <c r="R287">
@@ -16713,7 +16967,7 @@
         <v>18000.77734375</v>
       </c>
       <c r="H288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29018.475881489485</v>
       </c>
       <c r="R288">
@@ -16743,7 +16997,7 @@
         <v>17755.09765625</v>
       </c>
       <c r="H289">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28822.150843768042</v>
       </c>
       <c r="R289">
@@ -16773,7 +17027,7 @@
         <v>17689.296875</v>
       </c>
       <c r="H290">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28626.609816462998</v>
       </c>
       <c r="R290">
@@ -16803,7 +17057,7 @@
         <v>17391.60546875</v>
       </c>
       <c r="H291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28431.859573089514</v>
       </c>
       <c r="R291">
@@ -16833,7 +17087,7 @@
         <v>17670.6875</v>
       </c>
       <c r="H292">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28237.906640311066</v>
       </c>
       <c r="R292">
@@ -16863,7 +17117,7 @@
         <v>17388.2421875</v>
       </c>
       <c r="H293">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28044.757302583661</v>
       </c>
       <c r="R293">
@@ -16893,7 +17147,7 @@
         <v>17450.7109375</v>
       </c>
       <c r="H294">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27852.417606727449</v>
       </c>
       <c r="R294">
@@ -16923,7 +17177,7 @@
         <v>16863.11328125</v>
       </c>
       <c r="H295">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27660.893366426568</v>
       </c>
       <c r="R295">
@@ -16953,7 +17207,7 @@
         <v>16968.685546875</v>
       </c>
       <c r="H296">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27470.190166658551</v>
       </c>
       <c r="R296">
@@ -16983,7 +17237,7 @@
         <v>16351.91015625</v>
       </c>
       <c r="H297">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27280.313368054001</v>
       </c>
       <c r="R297">
@@ -17013,7 +17267,7 @@
         <v>16728.49609375</v>
       </c>
       <c r="H298">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27091.268111187776</v>
       </c>
       <c r="R298">
@@ -17043,7 +17297,7 @@
         <v>16662.47265625</v>
       </c>
       <c r="H299">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26903.059320802393</v>
       </c>
       <c r="R299">
@@ -17073,7 +17327,7 @@
         <v>15858.1435546875</v>
       </c>
       <c r="H300">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26715.691709965107</v>
       </c>
       <c r="R300">
@@ -17103,7 +17357,7 @@
         <v>15992.158203125</v>
       </c>
       <c r="H301">
-        <f t="shared" ref="H301" si="1">R301-(R301-(0.037562044057713*$A301-0.837451754523679)*EXP(12.70776)*EXP($A301*-0.037194))</f>
+        <f t="shared" ref="H301" si="2">R301-(R301-(0.037562044057713*$A301-0.837451754523679)*EXP(12.70776)*EXP($A301*-0.037194))</f>
         <v>26529.169784158956</v>
       </c>
       <c r="R301">
@@ -17148,15 +17402,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D198F3-2E12-4DCF-8941-B77A3489BB95}">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="B302" sqref="B2:B302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17181,8 +17435,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE($I1,B1)</f>
+        <v>Info ads8</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
+        <v>Info ads9</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads10</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads11</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads12</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads13</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -17207,8 +17492,29 @@
       <c r="H2">
         <v>301909.65625</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>7.7</v>
+      </c>
+      <c r="L2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M2">
+        <v>8.9</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>10.1</v>
+      </c>
+      <c r="P2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -17233,8 +17539,26 @@
       <c r="H3">
         <v>297933.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>12.5</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>13.7</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -17259,8 +17583,29 @@
       <c r="H4">
         <v>294505.03125</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -17285,8 +17630,29 @@
       <c r="H5">
         <v>291663.40625</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>-2.60685988973593E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.7042566122622999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8935318901882098E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.7367230990193701E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7129753705736399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.0823274394742001E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.9304916450849001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -17311,8 +17677,29 @@
       <c r="H6">
         <v>289729.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="K6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="L6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="M6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="N6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="O6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="P6">
+        <v>12.9554015315904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -17337,8 +17724,29 @@
       <c r="H7">
         <v>287050.21875</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>12.6796109656678</v>
+      </c>
+      <c r="K7">
+        <v>12.8292427748611</v>
+      </c>
+      <c r="L7">
+        <v>12.914109447618999</v>
+      </c>
+      <c r="M7">
+        <v>12.815118052590901</v>
+      </c>
+      <c r="N7">
+        <v>13.094613791895201</v>
+      </c>
+      <c r="O7">
+        <v>13.188539220536301</v>
+      </c>
+      <c r="P7">
+        <v>13.196144394817001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -17364,7 +17772,7 @@
         <v>284704.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -17390,7 +17798,7 @@
         <v>283032.53125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -17416,7 +17824,7 @@
         <v>281079.71875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -17442,7 +17850,7 @@
         <v>279501.8125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -17468,7 +17876,7 @@
         <v>277937.15625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -17494,7 +17902,7 @@
         <v>277230.1875</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -17520,7 +17928,7 @@
         <v>276321</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -17546,7 +17954,7 @@
         <v>275033.375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -25018,13 +25426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7714C4-0E4C-4C55-8DFB-24059BC76BB1}">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="F302" sqref="F253:F302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25049,8 +25457,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE($I1,B1)</f>
+        <v>Info ads8</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
+        <v>Info ads9</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads10</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads11</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads12</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads13</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -25075,8 +25514,29 @@
       <c r="H2">
         <v>281518.8125</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>7.7</v>
+      </c>
+      <c r="L2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M2">
+        <v>8.9</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>10.1</v>
+      </c>
+      <c r="P2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -25101,8 +25561,26 @@
       <c r="H3">
         <v>277290.1875</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>12.5</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>13.7</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -25127,8 +25605,29 @@
       <c r="H4">
         <v>274308.6875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -25153,8 +25652,29 @@
       <c r="H5">
         <v>270737.9375</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>-2.60685988973593E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.7042566122622999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8935318901882098E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.7367230990193701E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7129753705736399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.0823274394742001E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.9304916450849001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -25179,8 +25699,29 @@
       <c r="H6">
         <v>268228.59375</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="K6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="L6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="M6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="N6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="O6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="P6">
+        <v>12.9554015315904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -25205,8 +25746,29 @@
       <c r="H7">
         <v>265754.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>12.6796109656678</v>
+      </c>
+      <c r="K7">
+        <v>12.8292427748611</v>
+      </c>
+      <c r="L7">
+        <v>12.914109447618999</v>
+      </c>
+      <c r="M7">
+        <v>12.815118052590901</v>
+      </c>
+      <c r="N7">
+        <v>13.094613791895201</v>
+      </c>
+      <c r="O7">
+        <v>13.188539220536301</v>
+      </c>
+      <c r="P7">
+        <v>13.196144394817001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -25232,7 +25794,7 @@
         <v>262657.8125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -25258,7 +25820,7 @@
         <v>260797.234375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -25284,7 +25846,7 @@
         <v>258699.390625</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -25310,7 +25872,7 @@
         <v>257158.140625</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -25336,7 +25898,7 @@
         <v>255144.375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -25362,7 +25924,7 @@
         <v>253062.859375</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -25388,7 +25950,7 @@
         <v>252181.09375</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -25414,7 +25976,7 @@
         <v>250551.6875</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -31376,7 +31938,7 @@
         <v>42996.734375</v>
       </c>
       <c r="C245">
-        <f t="shared" ref="C245:C301" si="0">K245-(K245-(0.0160734705644603*$A245+0.68075330042871)*EXP(12.70776)*EXP($A245*-0.037194))</f>
+        <f t="shared" ref="C245:C301" si="1">K245-(K245-(0.0160734705644603*$A245+0.68075330042871)*EXP(12.70776)*EXP($A245*-0.037194))</f>
         <v>35219.556485860143</v>
       </c>
       <c r="D245">
@@ -31406,7 +31968,7 @@
         <v>42933.53125</v>
       </c>
       <c r="C246">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34915.642993832742</v>
       </c>
       <c r="D246">
@@ -31436,7 +31998,7 @@
         <v>42379.25</v>
       </c>
       <c r="C247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34614.137644435476</v>
       </c>
       <c r="D247">
@@ -31466,7 +32028,7 @@
         <v>41552.421875</v>
       </c>
       <c r="C248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34315.024414709318</v>
       </c>
       <c r="D248">
@@ -31496,7 +32058,7 @@
         <v>42112.76953125</v>
       </c>
       <c r="C249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34018.287340779585</v>
       </c>
       <c r="D249">
@@ -31526,7 +32088,7 @@
         <v>41179.5234375</v>
       </c>
       <c r="C250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33723.910518517361</v>
       </c>
       <c r="D250">
@@ -31556,7 +32118,7 @@
         <v>41373.265625</v>
       </c>
       <c r="C251">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33431.878104179326</v>
       </c>
       <c r="D251">
@@ -31586,7 +32148,7 @@
         <v>40845.26171875</v>
       </c>
       <c r="C252">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33142.174315025688</v>
       </c>
       <c r="D252">
@@ -31616,7 +32178,7 @@
         <v>41148.5546875</v>
       </c>
       <c r="C253">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32854.78342991729</v>
       </c>
       <c r="D253">
@@ -31626,7 +32188,7 @@
         <v>31853.650390625</v>
       </c>
       <c r="F253">
-        <f t="shared" ref="F253:F301" si="1">P253-(P253-(0.0104070685331985*$A253+0.771824200928795)*EXP(12.70776)*EXP($A253*-0.037194))</f>
+        <f t="shared" ref="F253:F301" si="2">P253-(P253-(0.0104070685331985*$A253+0.771824200928795)*EXP(12.70776)*EXP($A253*-0.037194))</f>
         <v>26789.607736547288</v>
       </c>
       <c r="G253">
@@ -31650,7 +32212,7 @@
         <v>41012.140625</v>
       </c>
       <c r="C254">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32569.689789891654</v>
       </c>
       <c r="D254">
@@ -31660,7 +32222,7 @@
         <v>31202.71875</v>
       </c>
       <c r="F254">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26543.799092479392</v>
       </c>
       <c r="G254">
@@ -31684,7 +32246,7 @@
         <v>39927.29296875</v>
       </c>
       <c r="C255">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32286.877798718946</v>
       </c>
       <c r="D255">
@@ -31694,7 +32256,7 @@
         <v>31020.37109375</v>
       </c>
       <c r="F255">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26300.147046424336</v>
       </c>
       <c r="G255">
@@ -31718,7 +32280,7 @@
         <v>39934.359375</v>
       </c>
       <c r="C256">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32006.331923437643</v>
       </c>
       <c r="D256">
@@ -31728,7 +32290,7 @@
         <v>30506.23046875</v>
       </c>
       <c r="F256">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26058.634003621602</v>
       </c>
       <c r="G256">
@@ -31752,7 +32314,7 @@
         <v>39369.65625</v>
       </c>
       <c r="C257">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31728.036694870945</v>
       </c>
       <c r="D257">
@@ -31762,7 +32324,7 @@
         <v>30841.7265625</v>
       </c>
       <c r="F257">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25819.242494248458</v>
       </c>
       <c r="G257">
@@ -31786,7 +32348,7 @@
         <v>39145.1640625</v>
       </c>
       <c r="C258">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31451.976708123533</v>
       </c>
       <c r="D258">
@@ -31796,7 +32358,7 @@
         <v>30147.76171875</v>
       </c>
       <c r="F258">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25581.955172813465</v>
       </c>
       <c r="G258">
@@ -31820,7 +32382,7 @@
         <v>38674.03515625</v>
       </c>
       <c r="C259">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31178.136623059821</v>
       </c>
       <c r="D259">
@@ -31830,7 +32392,7 @@
         <v>29914.3671875</v>
       </c>
       <c r="F259">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25346.754817548423</v>
       </c>
       <c r="G259">
@@ -31854,7 +32416,7 @@
         <v>38775.1171875</v>
       </c>
       <c r="C260">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30906.501164763391</v>
       </c>
       <c r="D260">
@@ -31864,7 +32426,7 @@
         <v>29483.08984375</v>
       </c>
       <c r="F260">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25113.624329798185</v>
       </c>
       <c r="G260">
@@ -31888,7 +32450,7 @@
         <v>37771.26953125</v>
       </c>
       <c r="C261">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30637.055123978491</v>
       </c>
       <c r="D261">
@@ -31898,7 +32460,7 @@
         <v>29243.36328125</v>
       </c>
       <c r="F261">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24882.546733409046</v>
       </c>
       <c r="G261">
@@ -31922,7 +32484,7 @@
         <v>37863.671875</v>
       </c>
       <c r="C262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30369.783357533543</v>
       </c>
       <c r="D262">
@@ -31932,7 +32494,7 @@
         <v>29024.103515625</v>
       </c>
       <c r="F262">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24653.505174115366</v>
       </c>
       <c r="G262">
@@ -31956,7 +32518,7 @@
         <v>37583.6796875</v>
       </c>
       <c r="C263">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30104.670788747178</v>
       </c>
       <c r="D263">
@@ -31966,7 +32528,7 @@
         <v>28950.5546875</v>
       </c>
       <c r="F263">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24426.482918924707</v>
       </c>
       <c r="G263">
@@ -31990,7 +32552,7 @@
         <v>37260.43359375</v>
       </c>
       <c r="C264">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29841.702407817273</v>
       </c>
       <c r="D264">
@@ -32000,7 +32562,7 @@
         <v>28986.296875</v>
       </c>
       <c r="F264">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24201.463355501815</v>
       </c>
       <c r="G264">
@@ -32024,7 +32586,7 @@
         <v>36766.41015625</v>
       </c>
       <c r="C265">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29580.863272192953</v>
       </c>
       <c r="D265">
@@ -32034,7 +32596,7 @@
         <v>28462.98828125</v>
       </c>
       <c r="F265">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23978.429991551107</v>
       </c>
       <c r="G265">
@@ -32058,7 +32620,7 @@
         <v>36532.2109375</v>
       </c>
       <c r="C266">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29322.1385069303</v>
       </c>
       <c r="D266">
@@ -32068,7 +32630,7 @@
         <v>28257.3125</v>
       </c>
       <c r="F266">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23757.366454198145</v>
       </c>
       <c r="G266">
@@ -32092,7 +32654,7 @@
         <v>36512.875</v>
       </c>
       <c r="C267">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29065.513305031742</v>
       </c>
       <c r="D267">
@@ -32102,7 +32664,7 @@
         <v>27610.978515625</v>
       </c>
       <c r="F267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23538.256489370011</v>
       </c>
       <c r="G267">
@@ -32126,7 +32688,7 @@
         <v>35446.0546875</v>
       </c>
       <c r="C268">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28810.972927769682</v>
       </c>
       <c r="D268">
@@ -32136,7 +32698,7 @@
         <v>27334.150390625</v>
       </c>
       <c r="F268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23321.083961174732</v>
       </c>
       <c r="G268">
@@ -32160,7 +32722,7 @@
         <v>35578.70703125</v>
       </c>
       <c r="C269">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28558.502704994491</v>
       </c>
       <c r="D269">
@@ -32170,7 +32732,7 @@
         <v>27291.37109375</v>
       </c>
       <c r="F269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23105.832851279822</v>
       </c>
       <c r="G269">
@@ -32194,7 +32756,7 @@
         <v>34868.94921875</v>
       </c>
       <c r="C270">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28308.088035427372</v>
       </c>
       <c r="D270">
@@ -32204,7 +32766,7 @@
         <v>26311.52734375</v>
       </c>
       <c r="F270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22892.48725829017</v>
       </c>
       <c r="G270">
@@ -32228,7 +32790,7 @@
         <v>34222.6015625</v>
       </c>
       <c r="C271">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28059.714386938147</v>
       </c>
       <c r="D271">
@@ -32238,7 +32800,7 @@
         <v>26706.1875</v>
       </c>
       <c r="F271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22681.03139712508</v>
       </c>
       <c r="G271">
@@ -32262,7 +32824,7 @@
         <v>34292.078125</v>
       </c>
       <c r="C272">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27813.367296808567</v>
       </c>
       <c r="D272">
@@ -32272,7 +32834,7 @@
         <v>26175.73828125</v>
       </c>
       <c r="F272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22471.449598394967</v>
       </c>
       <c r="G272">
@@ -32296,7 +32858,7 @@
         <v>34046.66796875</v>
       </c>
       <c r="C273">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27569.032371981055</v>
       </c>
       <c r="D273">
@@ -32306,7 +32868,7 @@
         <v>26342.576171875</v>
       </c>
       <c r="F273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22263.726307777306</v>
       </c>
       <c r="G273">
@@ -32330,7 +32892,7 @@
         <v>33807.33203125</v>
       </c>
       <c r="C274">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27326.695289293599</v>
       </c>
       <c r="D274">
@@ -32340,7 +32902,7 @@
         <v>26156.4765625</v>
       </c>
       <c r="F274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22057.84608539243</v>
       </c>
       <c r="G274">
@@ -32364,7 +32926,7 @@
         <v>33654.62109375</v>
       </c>
       <c r="C275">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27086.341795700671</v>
       </c>
       <c r="D275">
@@ -32374,7 +32936,7 @@
         <v>25337.05859375</v>
       </c>
       <c r="F275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21853.79360517882</v>
       </c>
       <c r="G275">
@@ -32398,7 +32960,7 @@
         <v>33891.9140625</v>
       </c>
       <c r="C276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26847.957708480772</v>
       </c>
       <c r="D276">
@@ -32408,7 +32970,7 @@
         <v>25157.916015625</v>
       </c>
       <c r="F276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21651.553654268304</v>
       </c>
       <c r="G276">
@@ -32432,7 +32994,7 @@
         <v>33339.9765625</v>
       </c>
       <c r="C277">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26611.528915430696</v>
       </c>
       <c r="D277">
@@ -32442,7 +33004,7 @@
         <v>24884.05078125</v>
       </c>
       <c r="F277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21451.11113236106</v>
       </c>
       <c r="G277">
@@ -32466,7 +33028,7 @@
         <v>33256.01171875</v>
       </c>
       <c r="C278">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26377.041375046727</v>
       </c>
       <c r="D278">
@@ -32476,7 +33038,7 @@
         <v>24645.39453125</v>
       </c>
       <c r="F278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21252.45105110047</v>
       </c>
       <c r="G278">
@@ -32500,7 +33062,7 @@
         <v>32759.69140625</v>
       </c>
       <c r="C279">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26144.481116693332</v>
       </c>
       <c r="D279">
@@ -32510,7 +33072,7 @@
         <v>24808.14453125</v>
       </c>
       <c r="F279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21055.558533448169</v>
       </c>
       <c r="G279">
@@ -32534,7 +33096,7 @@
         <v>32274.921875</v>
       </c>
       <c r="C280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25913.834240759177</v>
       </c>
       <c r="D280">
@@ -32544,7 +33106,7 @@
         <v>24936.59765625</v>
       </c>
       <c r="F280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20860.418813058965</v>
       </c>
       <c r="G280">
@@ -32568,7 +33130,7 @@
         <v>31397.69140625</v>
       </c>
       <c r="C281">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25685.086918801182</v>
       </c>
       <c r="D281">
@@ -32578,7 +33140,7 @@
         <v>24539.693359375</v>
       </c>
       <c r="F281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20667.017233656141</v>
       </c>
       <c r="G281">
@@ -32602,7 +33164,7 @@
         <v>31621.576171875</v>
       </c>
       <c r="C282">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25458.225393676435</v>
       </c>
       <c r="D282">
@@ -32612,7 +33174,7 @@
         <v>24355.34375</v>
       </c>
       <c r="F282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20475.339248406803</v>
       </c>
       <c r="G282">
@@ -32636,7 +33198,7 @@
         <v>31538.640625</v>
       </c>
       <c r="C283">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25233.235979662557</v>
       </c>
       <c r="D283">
@@ -32646,7 +33208,7 @@
         <v>23660.875</v>
       </c>
       <c r="F283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20285.370419297673</v>
       </c>
       <c r="G283">
@@ -32670,7 +33232,7 @@
         <v>31022.37890625</v>
       </c>
       <c r="C284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25010.105062566512</v>
       </c>
       <c r="D284">
@@ -32680,7 +33242,7 @@
         <v>23585.67578125</v>
       </c>
       <c r="F284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20097.096416511165</v>
       </c>
       <c r="G284">
@@ -32704,7 +33266,7 @@
         <v>31072.734375</v>
       </c>
       <c r="C285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24788.819099822325</v>
       </c>
       <c r="D285">
@@ -32714,7 +33276,7 @@
         <v>22839.869140625</v>
       </c>
       <c r="F285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19910.503017801984</v>
       </c>
       <c r="G285">
@@ -32738,7 +33300,7 @@
         <v>30664.044921875</v>
       </c>
       <c r="C286">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24569.364620577668</v>
       </c>
       <c r="D286">
@@ -32748,7 +33310,7 @@
         <v>23311.0625</v>
       </c>
       <c r="F286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19725.576107874171</v>
       </c>
       <c r="G286">
@@ -32772,7 +33334,7 @@
         <v>30498.51171875</v>
       </c>
       <c r="C287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24351.728225769933</v>
       </c>
       <c r="D287">
@@ -32782,7 +33344,7 @@
         <v>22825.740234375</v>
       </c>
       <c r="F287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19542.301677758838</v>
       </c>
       <c r="G287">
@@ -32806,7 +33368,7 @@
         <v>30033.470703125</v>
       </c>
       <c r="C288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24135.896588191481</v>
       </c>
       <c r="D288">
@@ -32816,7 +33378,7 @@
         <v>22286.33203125</v>
       </c>
       <c r="F288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19360.665824192329</v>
       </c>
       <c r="G288">
@@ -32840,7 +33402,7 @@
         <v>30207.62109375</v>
       </c>
       <c r="C289">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23921.856452544918</v>
       </c>
       <c r="D289">
@@ -32850,7 +33412,7 @@
         <v>22375.876953125</v>
       </c>
       <c r="F289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19180.654748995385</v>
       </c>
       <c r="G289">
@@ -32874,7 +33436,7 @@
         <v>29550.666015625</v>
       </c>
       <c r="C290">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23709.594635488051</v>
       </c>
       <c r="D290">
@@ -32884,7 +33446,7 @@
         <v>22158.142578125</v>
       </c>
       <c r="F290">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19002.254758452793</v>
       </c>
       <c r="G290">
@@ -32908,7 +33470,7 @@
         <v>29289.26171875</v>
       </c>
       <c r="C291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23499.098025669151</v>
       </c>
       <c r="D291">
@@ -32918,7 +33480,7 @@
         <v>22076.41015625</v>
       </c>
       <c r="F291">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18825.452262694052</v>
       </c>
       <c r="G291">
@@ -32942,7 +33504,7 @@
         <v>29444.89453125</v>
       </c>
       <c r="C292">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23290.353583752527</v>
       </c>
       <c r="D292">
@@ -32952,7 +33514,7 @@
         <v>21890.0390625</v>
       </c>
       <c r="F292">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18650.233775074863</v>
       </c>
       <c r="G292">
@@ -32976,7 +33538,7 @@
         <v>28737.091796875</v>
       </c>
       <c r="C293">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23083.348342434583</v>
       </c>
       <c r="D293">
@@ -32986,7 +33548,7 @@
         <v>21762.8671875</v>
       </c>
       <c r="F293">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18476.585911559483</v>
       </c>
       <c r="G293">
@@ -33010,7 +33572,7 @@
         <v>28435.91796875</v>
       </c>
       <c r="C294">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22878.069406450813</v>
       </c>
       <c r="D294">
@@ -33020,7 +33582,7 @@
         <v>21310.6328125</v>
       </c>
       <c r="F294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18304.49539010421</v>
       </c>
       <c r="G294">
@@ -33044,7 +33606,7 @@
         <v>28599.609375</v>
       </c>
       <c r="C295">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22674.50395257361</v>
       </c>
       <c r="D295">
@@ -33054,7 +33616,7 @@
         <v>21185.8984375</v>
       </c>
       <c r="F295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18133.949030041818</v>
       </c>
       <c r="G295">
@@ -33078,7 +33640,7 @@
         <v>28659.037109375</v>
       </c>
       <c r="C296">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22472.639229601395</v>
       </c>
       <c r="D296">
@@ -33088,7 +33650,7 @@
         <v>20674.107421875</v>
       </c>
       <c r="F296">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17964.933751467153</v>
       </c>
       <c r="G296">
@@ -33112,7 +33674,7 @@
         <v>28407.05078125</v>
       </c>
       <c r="C297">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22272.462558339015</v>
       </c>
       <c r="D297">
@@ -33122,7 +33684,7 @@
         <v>20861.076171875</v>
       </c>
       <c r="F297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17797.43657462384</v>
       </c>
       <c r="G297">
@@ -33146,7 +33708,7 @@
         <v>27904.24609375</v>
       </c>
       <c r="C298">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22073.961331569764</v>
       </c>
       <c r="D298">
@@ -33156,7 +33718,7 @@
         <v>21026.408203125</v>
       </c>
       <c r="F298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17631.444619292219</v>
       </c>
       <c r="G298">
@@ -33180,7 +33742,7 @@
         <v>27908.9921875</v>
       </c>
       <c r="C299">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21877.123014019086</v>
       </c>
       <c r="D299">
@@ -33190,7 +33752,7 @@
         <v>20260.796875</v>
       </c>
       <c r="F299">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17466.945104178485</v>
       </c>
       <c r="G299">
@@ -33214,7 +33776,7 @@
         <v>26962.99609375</v>
       </c>
       <c r="C300">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21681.935142310373</v>
       </c>
       <c r="D300">
@@ -33224,7 +33786,7 @@
         <v>20166.6875</v>
       </c>
       <c r="F300">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17303.925346305266</v>
       </c>
       <c r="G300">
@@ -33248,7 +33810,7 @@
         <v>26937.203125</v>
       </c>
       <c r="C301">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21488.38532491267</v>
       </c>
       <c r="D301">
@@ -33258,7 +33820,7 @@
         <v>20401.28515625</v>
       </c>
       <c r="F301">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17142.372760403319</v>
       </c>
       <c r="G301">
@@ -33318,13 +33880,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2247138-D82A-46BB-9A0D-F69CFA6CCF90}">
   <dimension ref="A1:R302"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="F302" sqref="F272:F302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33349,8 +33911,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE($I1,B1)</f>
+        <v>Info ads8</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:P1" si="0">CONCATENATE($I1,C1)</f>
+        <v>Info ads9</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads10</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads11</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads12</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads13</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info ads14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -33375,8 +33968,29 @@
       <c r="H2">
         <v>569628.4375</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>7.7</v>
+      </c>
+      <c r="L2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M2">
+        <v>8.9</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>10.1</v>
+      </c>
+      <c r="P2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -33401,8 +34015,26 @@
       <c r="H3">
         <v>562707.8125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>10.4</v>
+      </c>
+      <c r="L3">
+        <v>12.5</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>13.7</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -33427,8 +34059,29 @@
       <c r="H4">
         <v>555859.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -33453,8 +34106,29 @@
       <c r="H5">
         <v>551240.0625</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>-2.60685988973593E-2</v>
+      </c>
+      <c r="K5">
+        <v>-2.7042566122622999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.8935318901882098E-2</v>
+      </c>
+      <c r="M5">
+        <v>-2.7367230990193701E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7129753705736399E-2</v>
+      </c>
+      <c r="O5">
+        <v>-3.0823274394742001E-2</v>
+      </c>
+      <c r="P5">
+        <v>-2.9304916450849001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -33479,8 +34153,29 @@
       <c r="H6">
         <v>546338.1875</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="K6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="L6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="M6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="N6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="O6">
+        <v>12.9554015315904</v>
+      </c>
+      <c r="P6">
+        <v>12.9554015315904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -33505,8 +34200,29 @@
       <c r="H7">
         <v>540526.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>12.6796109656678</v>
+      </c>
+      <c r="K7">
+        <v>12.8292427748611</v>
+      </c>
+      <c r="L7">
+        <v>12.914109447618999</v>
+      </c>
+      <c r="M7">
+        <v>12.815118052590901</v>
+      </c>
+      <c r="N7">
+        <v>13.094613791895201</v>
+      </c>
+      <c r="O7">
+        <v>13.188539220536301</v>
+      </c>
+      <c r="P7">
+        <v>13.196144394817001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -33532,7 +34248,7 @@
         <v>537153.8125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -33558,7 +34274,7 @@
         <v>532708.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -33584,7 +34300,7 @@
         <v>529518.3125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -33610,7 +34326,7 @@
         <v>525684.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -33636,7 +34352,7 @@
         <v>522714.125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -33662,7 +34378,7 @@
         <v>520303.6875</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -33688,7 +34404,7 @@
         <v>519023.28125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -33714,7 +34430,7 @@
         <v>516570.09375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -39624,11 +40340,11 @@
         <v>37178.15234375</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:C301" si="0">K243-(K243-(0.0183115854219334*$A243+0.494757500951985)*EXP(12.70776)*EXP($A243*-0.037194))</f>
+        <f t="shared" ref="C243:C301" si="1">K243-(K243-(0.0183115854219334*$A243+0.494757500951985)*EXP(12.70776)*EXP($A243*-0.037194))</f>
         <v>35592.644751897256</v>
       </c>
       <c r="D243">
-        <f t="shared" ref="D243:D301" si="1">L243-(L243-(0.024089755715758*$A243+0.416548694028886)*EXP(12.70776)*EXP($A243*-0.037194))</f>
+        <f t="shared" ref="D243:D301" si="2">L243-(L243-(0.024089755715758*$A243+0.416548694028886)*EXP(12.70776)*EXP($A243*-0.037194))</f>
         <v>42457.68096733671</v>
       </c>
       <c r="E243">
@@ -39658,11 +40374,11 @@
         <v>37133.390625</v>
       </c>
       <c r="C244">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35298.923951453231</v>
       </c>
       <c r="D244">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42119.724675821584</v>
       </c>
       <c r="E244">
@@ -39692,11 +40408,11 @@
         <v>36687.9296875</v>
       </c>
       <c r="C245">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35007.339157239017</v>
       </c>
       <c r="D245">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41784.040821565111</v>
       </c>
       <c r="E245">
@@ -39726,11 +40442,11 @@
         <v>36511.2421875</v>
       </c>
       <c r="C246">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34717.879130666734</v>
       </c>
       <c r="D246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41450.620584755765</v>
       </c>
       <c r="E246">
@@ -39760,11 +40476,11 @@
         <v>36406.29296875</v>
       </c>
       <c r="C247">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34430.532619563164</v>
       </c>
       <c r="D247">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41119.455061520261</v>
       </c>
       <c r="E247">
@@ -39794,11 +40510,11 @@
         <v>35940.765625</v>
       </c>
       <c r="C248">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34145.288359854851</v>
       </c>
       <c r="D248">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40790.535266874824</v>
       </c>
       <c r="E248">
@@ -39828,11 +40544,11 @@
         <v>35622.90234375</v>
       </c>
       <c r="C249">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33862.135077217798</v>
       </c>
       <c r="D249">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40463.852137621783</v>
       </c>
       <c r="E249">
@@ -39862,11 +40578,11 @@
         <v>34751.9765625</v>
       </c>
       <c r="C250">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33581.06148869171</v>
       </c>
       <c r="D250">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40139.39653519135</v>
       </c>
       <c r="E250">
@@ -39896,11 +40612,11 @@
         <v>34972.921875</v>
       </c>
       <c r="C251">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33302.056304259902</v>
       </c>
       <c r="D251">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39817.159248430413</v>
       </c>
       <c r="E251">
@@ -39930,11 +40646,11 @@
         <v>33757.84375</v>
       </c>
       <c r="C252">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33025.108228395053</v>
       </c>
       <c r="D252">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39497.13099633839</v>
       </c>
       <c r="E252">
@@ -39964,11 +40680,11 @@
         <v>34030.0078125</v>
       </c>
       <c r="C253">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32750.20596157161</v>
       </c>
       <c r="D253">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39179.302430751501</v>
       </c>
       <c r="E253">
@@ -39998,11 +40714,11 @@
         <v>34671.75390625</v>
       </c>
       <c r="C254">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32477.338201745246</v>
       </c>
       <c r="D254">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38863.664138975939</v>
       </c>
       <c r="E254">
@@ -40032,11 +40748,11 @@
         <v>33368.12890625</v>
       </c>
       <c r="C255">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32206.493645800096</v>
       </c>
       <c r="D255">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38550.206646371036</v>
       </c>
       <c r="E255">
@@ -40066,11 +40782,11 @@
         <v>32894.7578125</v>
       </c>
       <c r="C256">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31937.660990963977</v>
       </c>
       <c r="D256">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38238.920418882801</v>
       </c>
       <c r="E256">
@@ -40100,11 +40816,11 @@
         <v>33275.32421875</v>
       </c>
       <c r="C257">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31670.828936192625</v>
       </c>
       <c r="D257">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37929.795865529231</v>
       </c>
       <c r="E257">
@@ -40134,11 +40850,11 @@
         <v>33040.296875</v>
       </c>
       <c r="C258">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31405.986183522826</v>
       </c>
       <c r="D258">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37622.823340837283</v>
       </c>
       <c r="E258">
@@ -40168,11 +40884,11 @@
         <v>32930.3359375</v>
       </c>
       <c r="C259">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31143.121439395632</v>
       </c>
       <c r="D259">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37317.993147233305</v>
       </c>
       <c r="E259">
@@ -40202,11 +40918,11 @@
         <v>32587.96484375</v>
       </c>
       <c r="C260">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30882.223415949553</v>
       </c>
       <c r="D260">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37015.295537386672</v>
       </c>
       <c r="E260">
@@ -40236,11 +40952,11 @@
         <v>32547.017578125</v>
       </c>
       <c r="C261">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30623.280832284756</v>
       </c>
       <c r="D261">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36714.720716508171</v>
       </c>
       <c r="E261">
@@ -40270,11 +40986,11 @@
         <v>31803.35546875</v>
       </c>
       <c r="C262">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30366.282415698355</v>
       </c>
       <c r="D262">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36416.258844603311</v>
       </c>
       <c r="E262">
@@ -40287,7 +41003,7 @@
         <v>33275.69921875</v>
       </c>
       <c r="H262">
-        <f t="shared" ref="H262:H301" si="2">R262-(R262-(0.0222392662742062*$A262+0.486546867683171)*EXP(12.70776)*EXP($A262*-0.037194))</f>
+        <f t="shared" ref="H262:H301" si="3">R262-(R262-(0.0222392662742062*$A262+0.486546867683171)*EXP(12.70776)*EXP($A262*-0.037194))</f>
         <v>35156.272797748032</v>
       </c>
       <c r="K262">
@@ -40308,11 +41024,11 @@
         <v>31490.787109375</v>
       </c>
       <c r="C263">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30111.216902891381</v>
       </c>
       <c r="D263">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36119.900038681466</v>
       </c>
       <c r="E263">
@@ -40325,7 +41041,7 @@
         <v>32809.87890625</v>
       </c>
       <c r="H263">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34865.620162496147</v>
       </c>
       <c r="K263">
@@ -40346,11 +41062,11 @@
         <v>31930.9765625</v>
       </c>
       <c r="C264">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29858.073041148171</v>
       </c>
       <c r="D264">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35825.63437492169</v>
       </c>
       <c r="E264">
@@ -40363,7 +41079,7 @@
         <v>33015.171875</v>
       </c>
       <c r="H264">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34577.089172029926</v>
       </c>
       <c r="K264">
@@ -40384,11 +41100,11 @@
         <v>31047.1171875</v>
       </c>
       <c r="C265">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29606.839589488176</v>
       </c>
       <c r="D265">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35533.45189079563</v>
       </c>
       <c r="E265">
@@ -40401,7 +41117,7 @@
         <v>32563.634765625</v>
       </c>
       <c r="H265">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34290.668528707385</v>
       </c>
       <c r="K265">
@@ -40422,11 +41138,11 @@
         <v>31844.208984375</v>
       </c>
       <c r="C266">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29357.505319791129</v>
       </c>
       <c r="D266">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35243.342587148443</v>
       </c>
       <c r="E266">
@@ -40439,7 +41155,7 @@
         <v>32359.255859375</v>
       </c>
       <c r="H266">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34006.346924380014</v>
       </c>
       <c r="K266">
@@ -40460,11 +41176,11 @@
         <v>31627.96484375</v>
       </c>
       <c r="C267">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29110.059017895608</v>
       </c>
       <c r="D267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34955.296430238246</v>
       </c>
       <c r="E267">
@@ -40477,7 +41193,7 @@
         <v>32067.01953125</v>
       </c>
       <c r="H267">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33724.11304201687</v>
       </c>
       <c r="K267">
@@ -40498,11 +41214,11 @@
         <v>31303.12109375</v>
       </c>
       <c r="C268">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28864.489484671783</v>
       </c>
       <c r="D268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34669.303353734824</v>
       </c>
       <c r="E268">
@@ -40515,7 +41231,7 @@
         <v>32139.041015625</v>
       </c>
       <c r="H268">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33443.955557294095</v>
       </c>
       <c r="K268">
@@ -40536,11 +41252,11 @@
         <v>30700.623046875</v>
       </c>
       <c r="C269">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28620.78553706851</v>
       </c>
       <c r="D269">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34385.353260678268</v>
       </c>
       <c r="E269">
@@ -40553,7 +41269,7 @@
         <v>31716.77734375</v>
       </c>
       <c r="H269">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33165.863140150104</v>
       </c>
       <c r="K269">
@@ -40574,11 +41290,11 @@
         <v>31457.185546875</v>
       </c>
       <c r="C270">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28378.936009135483</v>
       </c>
       <c r="D270">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34103.436025398121</v>
       </c>
       <c r="E270">
@@ -40591,7 +41307,7 @@
         <v>31331.072265625</v>
       </c>
       <c r="H270">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32889.824456307302</v>
       </c>
       <c r="K270">
@@ -40612,11 +41328,11 @@
         <v>31111.7265625</v>
       </c>
       <c r="C271">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28138.92975302054</v>
       </c>
       <c r="D271">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33823.541495393707</v>
       </c>
       <c r="E271">
@@ -40629,7 +41345,7 @@
         <v>31356.400390625</v>
       </c>
       <c r="H271">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32615.828168760574</v>
       </c>
       <c r="K271">
@@ -40650,25 +41366,25 @@
         <v>30354.3125</v>
       </c>
       <c r="C272">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27900.755639942963</v>
       </c>
       <c r="D272">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33545.659493176347</v>
       </c>
       <c r="E272">
         <v>35496.953125</v>
       </c>
       <c r="F272">
-        <f t="shared" ref="F272:F301" si="3">P272-(P272-(0.00291980936123283*$A272+1.66410513232571)*EXP(12.70776)*EXP($A272*-0.037194))</f>
+        <f t="shared" ref="F272:F301" si="4">P272-(P272-(0.00291980936123283*$A272+1.66410513232571)*EXP(12.70776)*EXP($A272*-0.037194))</f>
         <v>25819.947160475429</v>
       </c>
       <c r="G272">
         <v>30017.65234375</v>
       </c>
       <c r="H272">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32343.862939233459</v>
       </c>
       <c r="K272">
@@ -40692,25 +41408,25 @@
         <v>30583.845703125</v>
       </c>
       <c r="C273">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27664.40256114268</v>
       </c>
       <c r="D273">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33269.779818073846</v>
       </c>
       <c r="E273">
         <v>35329.765625</v>
       </c>
       <c r="F273">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25545.122441405994</v>
       </c>
       <c r="G273">
         <v>30691.298828125</v>
       </c>
       <c r="H273">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32073.917429602119</v>
       </c>
       <c r="K273">
@@ -40734,25 +41450,25 @@
         <v>30057.34375</v>
       </c>
       <c r="C274">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27429.85942880631</v>
       </c>
       <c r="D274">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32995.892247998163</v>
       </c>
       <c r="E274">
         <v>35147.2734375</v>
       </c>
       <c r="F274">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25273.217645049837</v>
       </c>
       <c r="G274">
         <v>29777.658203125</v>
       </c>
       <c r="H274">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31805.980303288095</v>
       </c>
       <c r="K274">
@@ -40776,25 +41492,25 @@
         <v>29918.18359375</v>
       </c>
       <c r="C275">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27197.115176969957</v>
       </c>
       <c r="D275">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32723.98654117659</v>
       </c>
       <c r="E275">
         <v>35269.80078125</v>
       </c>
       <c r="F275">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25004.201809281862</v>
       </c>
       <c r="G275">
         <v>29945.46484375</v>
       </c>
       <c r="H275">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31540.040226619894</v>
       </c>
       <c r="K275">
@@ -40818,25 +41534,25 @@
         <v>29713.521484375</v>
       </c>
       <c r="C276">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26966.158762399635</v>
       </c>
       <c r="D276">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32454.052437847215</v>
       </c>
       <c r="E276">
         <v>34606.03515625</v>
       </c>
       <c r="F276">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24738.0442995835</v>
       </c>
       <c r="G276">
         <v>29705.84375</v>
       </c>
       <c r="H276">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31276.085870164407</v>
       </c>
       <c r="K276">
@@ -40860,25 +41576,25 @@
         <v>29503.103515625</v>
       </c>
       <c r="C277">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26736.979165449262</v>
       </c>
       <c r="D277">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32186.079661919208</v>
       </c>
       <c r="E277">
         <v>33807.2109375</v>
       </c>
       <c r="F277">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24474.714805584637</v>
       </c>
       <c r="G277">
         <v>29521.75390625</v>
       </c>
       <c r="H277">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31014.105910028287</v>
       </c>
       <c r="K277">
@@ -40902,25 +41618,25 @@
         <v>29609.25</v>
       </c>
       <c r="C278">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26509.565390896863</v>
       </c>
       <c r="D278">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31920.057922598335</v>
       </c>
       <c r="E278">
         <v>34254.98828125</v>
       </c>
       <c r="F278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24214.183337641713</v>
       </c>
       <c r="G278">
         <v>28963.654296875</v>
       </c>
       <c r="H278">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30754.089029129853</v>
       </c>
       <c r="K278">
@@ -40944,25 +41660,25 @@
         <v>29642.58984375</v>
       </c>
       <c r="C279">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26283.906468759433</v>
       </c>
       <c r="D279">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31655.976915978637</v>
       </c>
       <c r="E279">
         <v>33696.05859375</v>
       </c>
       <c r="F279">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23956.420223452194</v>
       </c>
       <c r="G279">
         <v>28922.66015625</v>
       </c>
       <c r="H279">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30496.023918442319</v>
       </c>
       <c r="K279">
@@ -40986,25 +41702,25 @@
         <v>29209.7265625</v>
       </c>
       <c r="C280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26059.991455086496</v>
       </c>
       <c r="D280">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31393.826326600301</v>
       </c>
       <c r="E280">
         <v>33231.84765625</v>
       </c>
       <c r="F280">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23701.396104704363</v>
       </c>
       <c r="G280">
         <v>28728.42578125</v>
       </c>
       <c r="H280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30239.899278208322</v>
       </c>
       <c r="K280">
@@ -41028,25 +41744,25 @@
         <v>28615.611328125</v>
       </c>
       <c r="C281">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25837.80943273316</v>
       </c>
       <c r="D281">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31133.595828974911</v>
       </c>
       <c r="E281">
         <v>32872.59765625</v>
       </c>
       <c r="F281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23449.081933762627</v>
       </c>
       <c r="G281">
         <v>28655.603515625</v>
       </c>
       <c r="H281">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29985.70381912676</v>
       </c>
       <c r="K281">
@@ -41070,25 +41786,25 @@
         <v>28333.78125</v>
       </c>
       <c r="C282">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25617.34951211268</v>
       </c>
       <c r="D282">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30875.275089077972</v>
       </c>
       <c r="E282">
         <v>33081.0703125</v>
       </c>
       <c r="F282">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23199.448970387588</v>
       </c>
       <c r="G282">
         <v>28256.15625</v>
       </c>
       <c r="H282">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29733.426263511948</v>
       </c>
       <c r="K282">
@@ -41112,25 +41828,25 @@
         <v>28477.236328125</v>
       </c>
       <c r="C283">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25398.60083192903</v>
       </c>
       <c r="D283">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30618.853765809748</v>
       </c>
       <c r="E283">
         <v>32691.77734375</v>
       </c>
       <c r="F283">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22952.468778490696</v>
       </c>
       <c r="G283">
         <v>27922.365234375</v>
       </c>
       <c r="H283">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29483.055346425856</v>
       </c>
       <c r="K283">
@@ -41154,25 +41870,25 @@
         <v>27619.15625</v>
       </c>
       <c r="C284">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25181.552559889871</v>
       </c>
       <c r="D284">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30364.321512424602</v>
       </c>
       <c r="E284">
         <v>32271.0234375</v>
       </c>
       <c r="F284">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22708.113222923057</v>
       </c>
       <c r="G284">
         <v>28027.697265625</v>
       </c>
       <c r="H284">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29234.579816783775</v>
       </c>
       <c r="K284">
@@ -41196,25 +41912,25 @@
         <v>27213.82421875</v>
       </c>
       <c r="C285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24966.193893400196</v>
       </c>
       <c r="D285">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30111.667977929592</v>
       </c>
       <c r="E285">
         <v>31496.966796875</v>
       </c>
       <c r="F285">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22466.354466298115</v>
       </c>
       <c r="G285">
         <v>27350.384765625</v>
       </c>
       <c r="H285">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28987.988438433913</v>
       </c>
       <c r="K285">
@@ -41238,25 +41954,25 @@
         <v>27510.01953125</v>
       </c>
       <c r="C286">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24752.514060236965</v>
       </c>
       <c r="D286">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29860.882808452603</v>
       </c>
       <c r="E286">
         <v>32013.064453125</v>
       </c>
       <c r="F286">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22227.164965847685</v>
       </c>
       <c r="G286">
         <v>27045.68359375</v>
       </c>
       <c r="H286">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28743.269991211222</v>
       </c>
       <c r="K286">
@@ -41280,25 +41996,25 @@
         <v>27149.990234375</v>
       </c>
       <c r="C287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24540.502319205239</v>
       </c>
       <c r="D287">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29611.955648580843</v>
       </c>
       <c r="E287">
         <v>31859.5546875</v>
       </c>
       <c r="F287">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21990.517470311264</v>
       </c>
       <c r="G287">
         <v>26782.236328125</v>
       </c>
       <c r="H287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28500.413271966161</v>
       </c>
       <c r="K287">
@@ -41322,25 +42038,25 @@
         <v>26277.0546875</v>
       </c>
       <c r="C288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24330.147960775794</v>
       </c>
       <c r="D288">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29364.876142669662</v>
       </c>
       <c r="E288">
         <v>31646.712890625</v>
       </c>
       <c r="F288">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21756.385016857843</v>
       </c>
       <c r="G288">
         <v>26475.349609375</v>
       </c>
       <c r="H288">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28259.407095568436</v>
       </c>
       <c r="K288">
@@ -41364,25 +42080,25 @@
         <v>26115.212890625</v>
       </c>
       <c r="C289">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24121.440307705034</v>
       </c>
       <c r="D289">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29119.633936122929</v>
       </c>
       <c r="E289">
         <v>30718.568359375</v>
       </c>
       <c r="F289">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21524.740928040457</v>
       </c>
       <c r="G289">
         <v>26287.791015625</v>
       </c>
       <c r="H289">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28020.240295886666</v>
       </c>
       <c r="K289">
@@ -41406,25 +42122,25 @@
         <v>27016.388671875</v>
       </c>
       <c r="C290">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23914.368715636971</v>
       </c>
       <c r="D290">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28876.218676644588</v>
       </c>
       <c r="E290">
         <v>30756.53125</v>
       </c>
       <c r="F290">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21295.558808782502</v>
       </c>
       <c r="G290">
         <v>26139.193359375</v>
       </c>
       <c r="H290">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27782.901726743745</v>
       </c>
       <c r="K290">
@@ -41448,25 +42164,25 @@
         <v>27339.953125</v>
       </c>
       <c r="C291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23708.922573688131</v>
       </c>
       <c r="D291">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28634.620015462689</v>
       </c>
       <c r="E291">
         <v>30491.59765625</v>
       </c>
       <c r="F291">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21068.812543396034</v>
       </c>
       <c r="G291">
         <v>26735.38671875</v>
       </c>
       <c r="H291">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27547.380262848976</v>
       </c>
       <c r="K291">
@@ -41490,25 +42206,25 @@
         <v>26160.0625</v>
       </c>
       <c r="C292">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23505.091305015274</v>
       </c>
       <c r="D292">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28394.82760852576</v>
       </c>
       <c r="E292">
         <v>30162.09375</v>
       </c>
       <c r="F292">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20844.476292631367</v>
       </c>
       <c r="G292">
         <v>25589.6171875</v>
       </c>
       <c r="H292">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27313.664800706913</v>
       </c>
       <c r="K292">
@@ -41532,25 +42248,25 @@
         <v>26262.943359375</v>
       </c>
       <c r="C293">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23302.864367366357</v>
       </c>
       <c r="D293">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28156.83111767218</v>
       </c>
       <c r="E293">
         <v>30215.56640625</v>
       </c>
       <c r="F293">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20622.524490757678</v>
       </c>
       <c r="G293">
         <v>25556.55859375</v>
       </c>
       <c r="H293">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27081.744259503379</v>
       </c>
       <c r="K293">
@@ -41574,25 +42290,25 @@
         <v>26095.1484375</v>
       </c>
       <c r="C294">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23102.231253615249</v>
       </c>
       <c r="D294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27920.620211773185</v>
       </c>
       <c r="E294">
         <v>29465.458984375</v>
       </c>
       <c r="F294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20402.931842674523</v>
       </c>
       <c r="G294">
         <v>25360.20703125</v>
       </c>
       <c r="H294">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26851.607581969354</v>
       </c>
       <c r="K294">
@@ -41616,25 +42332,25 @@
         <v>25874.595703125</v>
       </c>
       <c r="C295">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22903.181492280139</v>
       </c>
       <c r="D295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27686.184567849563</v>
       </c>
       <c r="E295">
         <v>29626.130859375</v>
       </c>
       <c r="F295">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20185.673321053644</v>
       </c>
       <c r="G295">
         <v>25198.408203125</v>
       </c>
       <c r="H295">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26623.24373522267</v>
       </c>
       <c r="K295">
@@ -41658,25 +42374,25 @@
         <v>25368.6328125</v>
       </c>
       <c r="C296">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22705.704648026262</v>
       </c>
       <c r="D296">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27453.513872162959</v>
       </c>
       <c r="E296">
         <v>29148.0078125</v>
       </c>
       <c r="F296">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19970.724163510982</v>
       </c>
       <c r="G296">
         <v>25244.99609375</v>
       </c>
       <c r="H296">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26396.641711588352</v>
       </c>
       <c r="K296">
@@ -41700,25 +42416,25 @@
         <v>25572.5</v>
       </c>
       <c r="C297">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22509.790322152974</v>
       </c>
       <c r="D297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27222.597821281688</v>
       </c>
       <c r="E297">
         <v>28510.529296875</v>
       </c>
       <c r="F297">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19758.059869808403</v>
       </c>
       <c r="G297">
         <v>24227.783203125</v>
       </c>
       <c r="H297">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26171.790529397542</v>
       </c>
       <c r="K297">
@@ -41742,25 +42458,25 @@
         <v>25806.0625</v>
       </c>
       <c r="C298">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22315.428153065634</v>
       </c>
       <c r="D298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26993.426123121986</v>
       </c>
       <c r="E298">
         <v>28449.55859375</v>
       </c>
       <c r="F298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19547.656199084948</v>
       </c>
       <c r="G298">
         <v>23763.220703125</v>
       </c>
       <c r="H298">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25948.679233765746</v>
       </c>
       <c r="K298">
@@ -41784,25 +42500,25 @@
         <v>24923.921875</v>
       </c>
       <c r="C299">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22122.607816732416</v>
       </c>
       <c r="D299">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26765.988497964685</v>
       </c>
       <c r="E299">
         <v>28370.23828125</v>
       </c>
       <c r="F299">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19339.489167117208</v>
       </c>
       <c r="G299">
         <v>24671.71875</v>
       </c>
       <c r="H299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25727.296897350479</v>
       </c>
       <c r="K299">
@@ -41826,25 +42542,25 @@
         <v>24303.68359375</v>
       </c>
       <c r="C300">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21931.319027126581</v>
       </c>
       <c r="D300">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26540.274679448132</v>
       </c>
       <c r="E300">
         <v>27970.2421875</v>
       </c>
       <c r="F300">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19133.535043608663</v>
       </c>
       <c r="G300">
         <v>23707.52734375</v>
       </c>
       <c r="H300">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25507.632621088957</v>
       </c>
       <c r="K300">
@@ -41868,25 +42584,25 @@
         <v>24044.46484375</v>
       </c>
       <c r="C301">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21741.551536654075</v>
       </c>
       <c r="D301">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26316.274415537348</v>
       </c>
       <c r="E301">
         <v>27919.181640625</v>
       </c>
       <c r="F301">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18929.770349507406</v>
       </c>
       <c r="G301">
         <v>23953.7578125</v>
       </c>
       <c r="H301">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25289.675534915827</v>
       </c>
       <c r="K301">
